--- a/Screenshots/Tutor Login Report.xlsx
+++ b/Screenshots/Tutor Login Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="113">
   <si>
     <t>key</t>
   </si>
@@ -123,6 +123,1678 @@
   </si>
   <si>
     <t>./Screenshots/2023-05-22-12-54-35.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-26-46.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D:\nurtem_mobile\Nurtem-Tutor.apk' (Root cause: com.kms.katalon.core.appium.exception.AppiumStartException: Appium directory is invalid: Cannot find appium executable file.
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.findAppiumJS(AppiumDriverManager.java:399)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServer(AppiumDriverManager.java:309)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:269)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:419)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.ensureServicesStarted(AppiumDriverManager.java:251)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:485)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684745789476.run(TempTestCase1684745789476.groovy:25)
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-26-50.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-26-52.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-26-54.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-28-43.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D:\nurtem_mobile\Nurtem-Tutor.apk' (Root cause: com.kms.katalon.core.appium.exception.AppiumStartException: Appium directory is invalid: Cannot find appium executable file.
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.findAppiumJS(AppiumDriverManager.java:399)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServer(AppiumDriverManager.java:309)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:269)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:419)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.ensureServicesStarted(AppiumDriverManager.java:251)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:485)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684745908419.run(TempTestCase1684745908419.groovy:25)
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-28-48.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-28-51.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-28-53.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-31-13.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D:\nurtem_mobile\Nurtem-Tutor.apk' (Root cause: com.kms.katalon.core.appium.exception.AppiumStartException: Appium directory is invalid: Cannot find appium executable file.
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.findAppiumJS(AppiumDriverManager.java:399)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServer(AppiumDriverManager.java:309)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:269)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:419)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.ensureServicesStarted(AppiumDriverManager.java:251)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:485)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684746051355.run(TempTestCase1684746051355.groovy:25)
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-31-18.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-31-21.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-31-24.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-44-53.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D:\nurtem_mobile\Nurtem-Tutor.apk' (Root cause: com.kms.katalon.core.appium.exception.AppiumStartException: Appium directory is invalid: Cannot find appium executable file.
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.findAppiumJS(AppiumDriverManager.java:399)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServer(AppiumDriverManager.java:309)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:269)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:419)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.ensureServicesStarted(AppiumDriverManager.java:251)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:485)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684746876758.run(TempTestCase1684746876758.groovy:25)
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-45-01.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-45-05.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-45-10.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-46-37.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D:\nurtem_mobile\Nurtem-Tutor.apk' (Root cause: com.kms.katalon.core.appium.exception.AppiumStartException: Appium directory is invalid: Cannot find appium executable file.
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.findAppiumJS(AppiumDriverManager.java:399)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServer(AppiumDriverManager.java:309)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:269)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:419)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.ensureServicesStarted(AppiumDriverManager.java:251)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:485)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684746982962.run(TempTestCase1684746982962.groovy:25)
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-46-43.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-46-47.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-46-51.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-47-21.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D:\nurtem_mobile\Nurtem-Tutor.apk' (Root cause: com.kms.katalon.core.appium.exception.AppiumStartException: Appium directory is invalid: Cannot find appium executable file.
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.findAppiumJS(AppiumDriverManager.java:399)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServer(AppiumDriverManager.java:309)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:269)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:419)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.ensureServicesStarted(AppiumDriverManager.java:251)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:485)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684747026013.run(TempTestCase1684747026013.groovy:25)
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-47-28.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-47-32.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-47-36.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-50-42.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: com.kms.katalon.core.appium.exception.AppiumStartException: Appium directory is invalid: Cannot find appium executable file.
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.findAppiumJS(AppiumDriverManager.java:399)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServer(AppiumDriverManager.java:309)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:269)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.startAppiumServerJS(AppiumDriverManager.java:419)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.ensureServicesStarted(AppiumDriverManager.java:251)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:485)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684747224527.run(TempTestCase1684747224527.groovy:25)
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-50-48.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-50-52.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-14-50-56.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-14-10.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: org.openqa.selenium.SessionNotCreatedException: Unable to create a new remote session. Please check the server log for more details. Original error: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:208)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684748615456.run(TempTestCase1684748615456.groovy:25)
+Caused by: java.lang.reflect.InvocationTargetException
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:186)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at Script1680175639101.run(Script1680175639101.groovy:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at Script1681099837899.run(Script1681099837899.groovy:33)
+	... 11 more
+Caused by: org.openqa.selenium.WebDriverException: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+	at org.openqa.selenium.remote.W3CHandshakeResponse.lambda$errorHandler$0(W3CHandshakeResponse.java:62)
+	at org.openqa.selenium.remote.HandshakeResponse.lambda$getResponseFunction$0(HandshakeResponse.java:30)
+	at org.openqa.selenium.remote.ProtocolHandshake.lambda$createSession$0(ProtocolHandshake.java:126)
+	at org.openqa.selenium.remote.ProtocolHandshake.createSession(ProtocolHandshake.java:128)
+	... 54 more
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-14-17.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-14-21.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-14-26.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-17-05.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: org.openqa.selenium.SessionNotCreatedException: Unable to create a new remote session. Please check the server log for more details. Original error: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:208)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684748790288.run(TempTestCase1684748790288.groovy:25)
+Caused by: java.lang.reflect.InvocationTargetException
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:186)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at Script1680175639101.run(Script1680175639101.groovy:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at Script1681099837899.run(Script1681099837899.groovy:33)
+	... 11 more
+Caused by: org.openqa.selenium.WebDriverException: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+	at org.openqa.selenium.remote.W3CHandshakeResponse.lambda$errorHandler$0(W3CHandshakeResponse.java:62)
+	at org.openqa.selenium.remote.HandshakeResponse.lambda$getResponseFunction$0(HandshakeResponse.java:30)
+	at org.openqa.selenium.remote.ProtocolHandshake.lambda$createSession$0(ProtocolHandshake.java:126)
+	at org.openqa.selenium.remote.ProtocolHandshake.createSession(ProtocolHandshake.java:128)
+	... 54 more
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-17-13.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-17-18.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-17-26.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-19-11.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: org.openqa.selenium.SessionNotCreatedException: Unable to create a new remote session. Please check the server log for more details. Original error: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:208)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684748914175.run(TempTestCase1684748914175.groovy:25)
+Caused by: java.lang.reflect.InvocationTargetException
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:186)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at Script1680175639101.run(Script1680175639101.groovy:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at Script1681099837899.run(Script1681099837899.groovy:33)
+	... 11 more
+Caused by: org.openqa.selenium.WebDriverException: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+	at org.openqa.selenium.remote.W3CHandshakeResponse.lambda$errorHandler$0(W3CHandshakeResponse.java:62)
+	at org.openqa.selenium.remote.HandshakeResponse.lambda$getResponseFunction$0(HandshakeResponse.java:30)
+	at org.openqa.selenium.remote.ProtocolHandshake.lambda$createSession$0(ProtocolHandshake.java:126)
+	at org.openqa.selenium.remote.ProtocolHandshake.createSession(ProtocolHandshake.java:128)
+	... 54 more
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-19-21.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-19-27.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-19-33.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-20-46.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: org.openqa.selenium.SessionNotCreatedException: Unable to create a new remote session. Please check the server log for more details. Original error: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:208)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684749011252.run(TempTestCase1684749011252.groovy:25)
+Caused by: java.lang.reflect.InvocationTargetException
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:186)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at Script1680175639101.run(Script1680175639101.groovy:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at Script1681099837899.run(Script1681099837899.groovy:33)
+	... 11 more
+Caused by: org.openqa.selenium.WebDriverException: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+	at org.openqa.selenium.remote.W3CHandshakeResponse.lambda$errorHandler$0(W3CHandshakeResponse.java:62)
+	at org.openqa.selenium.remote.HandshakeResponse.lambda$getResponseFunction$0(HandshakeResponse.java:30)
+	at org.openqa.selenium.remote.ProtocolHandshake.lambda$createSession$0(ProtocolHandshake.java:126)
+	at org.openqa.selenium.remote.ProtocolHandshake.createSession(ProtocolHandshake.java:128)
+	... 54 more
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-20-57.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-21-06.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-21-13.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-23-23.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: org.openqa.selenium.SessionNotCreatedException: Unable to create a new remote session. Please check the server log for more details. Original error: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:208)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684749168553.run(TempTestCase1684749168553.groovy:25)
+Caused by: java.lang.reflect.InvocationTargetException
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:186)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at Script1680175639101.run(Script1680175639101.groovy:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at Script1681099837899.run(Script1681099837899.groovy:33)
+	... 11 more
+Caused by: org.openqa.selenium.WebDriverException: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+	at org.openqa.selenium.remote.W3CHandshakeResponse.lambda$errorHandler$0(W3CHandshakeResponse.java:62)
+	at org.openqa.selenium.remote.HandshakeResponse.lambda$getResponseFunction$0(HandshakeResponse.java:30)
+	at org.openqa.selenium.remote.ProtocolHandshake.lambda$createSession$0(ProtocolHandshake.java:126)
+	at org.openqa.selenium.remote.ProtocolHandshake.createSession(ProtocolHandshake.java:128)
+	... 54 more
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-23-34.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-23-42.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-23-51.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-26-21.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: org.openqa.selenium.SessionNotCreatedException: Unable to create a new remote session. Please check the server log for more details. Original error: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:208)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684749343896.run(TempTestCase1684749343896.groovy:25)
+Caused by: java.lang.reflect.InvocationTargetException
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:186)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at Script1680175639101.run(Script1680175639101.groovy:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at Script1681099837899.run(Script1681099837899.groovy:33)
+	... 11 more
+Caused by: org.openqa.selenium.WebDriverException: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+	at org.openqa.selenium.remote.W3CHandshakeResponse.lambda$errorHandler$0(W3CHandshakeResponse.java:62)
+	at org.openqa.selenium.remote.HandshakeResponse.lambda$getResponseFunction$0(HandshakeResponse.java:30)
+	at org.openqa.selenium.remote.ProtocolHandshake.lambda$createSession$0(ProtocolHandshake.java:126)
+	at org.openqa.selenium.remote.ProtocolHandshake.createSession(ProtocolHandshake.java:128)
+	... 54 more
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-26-33.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-26-43.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-26-53.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-30-59.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: org.openqa.selenium.SessionNotCreatedException: Unable to create a new remote session. Please check the server log for more details. Original error: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:208)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684749617582.run(TempTestCase1684749617582.groovy:25)
+Caused by: java.lang.reflect.InvocationTargetException
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:186)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at Script1680175639101.run(Script1680175639101.groovy:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at Script1681099837899.run(Script1681099837899.groovy:33)
+	... 11 more
+Caused by: org.openqa.selenium.WebDriverException: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+	at org.openqa.selenium.remote.W3CHandshakeResponse.lambda$errorHandler$0(W3CHandshakeResponse.java:62)
+	at org.openqa.selenium.remote.HandshakeResponse.lambda$getResponseFunction$0(HandshakeResponse.java:30)
+	at org.openqa.selenium.remote.ProtocolHandshake.lambda$createSession$0(ProtocolHandshake.java:126)
+	at org.openqa.selenium.remote.ProtocolHandshake.createSession(ProtocolHandshake.java:128)
+	... 54 more
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-31-13.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-31-23.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-31-32.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-22-15-39-30.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: org.openqa.selenium.SessionNotCreatedException: Unable to create a new remote session. Please check the server log for more details. Original error: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:208)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684750134961.run(TempTestCase1684750134961.groovy:25)
+Caused by: java.lang.reflect.InvocationTargetException
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:186)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at Script1680175639101.run(Script1680175639101.groovy:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at Script1681099837899.run(Script1681099837899.groovy:33)
+	... 11 more
+Caused by: org.openqa.selenium.WebDriverException: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+	at org.openqa.selenium.remote.W3CHandshakeResponse.lambda$errorHandler$0(W3CHandshakeResponse.java:62)
+	at org.openqa.selenium.remote.HandshakeResponse.lambda$getResponseFunction$0(HandshakeResponse.java:30)
+	at org.openqa.selenium.remote.ProtocolHandshake.lambda$createSession$0(ProtocolHandshake.java:126)
+	at org.openqa.selenium.remote.ProtocolHandshake.createSession(ProtocolHandshake.java:128)
+	... 54 more
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-23-10-40-01.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: org.openqa.selenium.SessionNotCreatedException: Unable to create a new remote session. Please check the server log for more details. Original error: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:208)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684818566164.run(TempTestCase1684818566164.groovy:25)
+Caused by: java.lang.reflect.InvocationTargetException
+	at io.appium.java_client.remote.AppiumCommandExecutor$1.createSession(AppiumCommandExecutor.java:186)
+	at io.appium.java_client.remote.AppiumCommandExecutor.createSession(AppiumCommandExecutor.java:217)
+	at io.appium.java_client.remote.AppiumCommandExecutor.execute(AppiumCommandExecutor.java:239)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:552)
+	at io.appium.java_client.DefaultGenericMobileDriver.execute(DefaultGenericMobileDriver.java:42)
+	at io.appium.java_client.AppiumDriver.execute(AppiumDriver.java:1)
+	at io.appium.java_client.android.AndroidDriver.execute(AndroidDriver.java:1)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.execute(SwipeableAndroidDriver.java:1)
+	at org.openqa.selenium.remote.RemoteWebDriver.startSession(RemoteWebDriver.java:213)
+	at org.openqa.selenium.remote.RemoteWebDriver.&lt;init&gt;(RemoteWebDriver.java:131)
+	at io.appium.java_client.DefaultGenericMobileDriver.&lt;init&gt;(DefaultGenericMobileDriver.java:38)
+	at io.appium.java_client.AppiumDriver.&lt;init&gt;(AppiumDriver.java:84)
+	at io.appium.java_client.android.AndroidDriver.&lt;init&gt;(AndroidDriver.java:85)
+	at com.kms.katalon.core.appium.driver.SwipeableAndroidDriver.&lt;init&gt;(SwipeableAndroidDriver.java:24)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:510)
+	at com.kms.katalon.core.appium.driver.AppiumDriverManager.createMobileDriver(AppiumDriverManager.java:492)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:568)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at Script1680175639101.run(Script1680175639101.groovy:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at Script1681099837899.run(Script1681099837899.groovy:33)
+	... 11 more
+Caused by: org.openqa.selenium.WebDriverException: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'FRANSOVA', ip: '192.168.1.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: driver.version: SwipeableAndroidDriver
+remote stacktrace: UnknownError: An unknown server-side error occurred while processing the command. Original error: The application at 'D://nurtem_mobile//Nurtem-Tutor.apk' does not exist or is not accessible
+    at getResponseForW3CError (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\errors.js:804:9)
+    at asyncHandler (C:\Users\Franssova\AppData\Roaming\npm\node_modules\appium\node_modules\appium-base-driver\lib\protocol\protocol.js:380:37)
+	at org.openqa.selenium.remote.W3CHandshakeResponse.lambda$errorHandler$0(W3CHandshakeResponse.java:62)
+	at org.openqa.selenium.remote.HandshakeResponse.lambda$getResponseFunction$0(HandshakeResponse.java:30)
+	at org.openqa.selenium.remote.ProtocolHandshake.lambda$createSession$0(ProtocolHandshake.java:126)
+	at org.openqa.selenium.remote.ProtocolHandshake.createSession(ProtocolHandshake.java:128)
+	... 54 more
+)</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-05-23-10-55-31.png</t>
+  </si>
+  <si>
+    <t>Tutor LoginUnable to start app at: 'D://nurtem_mobile//Nurtem-Tutor.apk' (Root cause: java.lang.IllegalArgumentException: The mobile device is missing. Please select the mobile device to be executed and try again.
+	at com.google.common.base.Preconditions.checkArgument(Preconditions.java:135)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startLocalMobileDriver(MobileDriverFactory.java:564)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileDriverFactory.startMobileDriver(MobileDriverFactory.java:481)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.doCall(StartApplicationKeyword.groovy:61)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword$_startApplication_closure1.call(StartApplicationKeyword.groovy)
+	at com.kms.katalon.core.mobile.keyword.internal.MobileKeywordMain.runKeyword(MobileKeywordMain.groovy:21)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.startApplication(StartApplicationKeyword.groovy:63)
+	at com.kms.katalon.core.mobile.keyword.builtin.StartApplicationKeyword.execute(StartApplicationKeyword.groovy:42)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords.startApplication(MobileBuiltInKeywords.groovy:78)
+	at com.kms.katalon.core.mobile.keyword.MobileBuiltInKeywords$startApplication.call(Unknown Source)
+	at nurtem_tutor.run(nurtem_tutor:49)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.doCall(CallTestCaseKeyword.groovy:59)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword$_callTestCase_closure1.call(CallTestCaseKeyword.groovy)
+	at com.kms.katalon.core.keyword.internal.KeywordMain.runKeyword(KeywordMain.groovy:75)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.callTestCase(CallTestCaseKeyword.groovy:81)
+	at com.kms.katalon.core.keyword.builtin.CallTestCaseKeyword.execute(CallTestCaseKeyword.groovy:44)
+	at com.kms.katalon.core.keyword.internal.KeywordExecutor.executeKeywordForPlatform(KeywordExecutor.groovy:74)
+	at com.kms.katalon.core.keyword.BuiltinKeywords.callTestCase(BuiltinKeywords.groovy:334)
+	at nurtem_mobile_login_flow.run(nurtem_mobile_login_flow:33)
+	at com.kms.katalon.core.main.ScriptEngine.run(ScriptEngine.java:194)
+	at com.kms.katalon.core.main.ScriptEngine.runScriptAsRawText(ScriptEngine.java:119)
+	at com.kms.katalon.core.main.TestCaseExecutor.runScript(TestCaseExecutor.java:448)
+	at com.kms.katalon.core.main.TestCaseExecutor.doExecute(TestCaseExecutor.java:439)
+	at com.kms.katalon.core.main.TestCaseExecutor.processExecutionPhase(TestCaseExecutor.java:418)
+	at com.kms.katalon.core.main.TestCaseExecutor.accessMainPhase(TestCaseExecutor.java:410)
+	at com.kms.katalon.core.main.TestCaseExecutor.execute(TestCaseExecutor.java:285)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:144)
+	at com.kms.katalon.core.main.TestCaseMain.runTestCase(TestCaseMain.java:135)
+	at com.kms.katalon.core.main.TestCaseMain$runTestCase$0.call(Unknown Source)
+	at TempTestCase1684819509992.run(TempTestCase1684819509992.groovy:25)
+)</t>
   </si>
 </sst>
 </file>
@@ -130,7 +1802,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="66">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -174,8 +1846,362 @@
       <i val="true"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="130">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +2226,596 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -245,7 +2861,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="130">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -256,15 +2872,133 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -281,7 +3015,7 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="17.86328125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="1.03515625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="40.25390625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.8359375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.30078125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -519,13 +3253,2432 @@
       <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" t="s" s="11">
+      <c r="L6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s" s="10">
+      <c r="N6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" t="s">
+        <v>68</v>
+      </c>
+      <c r="N31" s="60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="M35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" s="68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36" s="70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37" s="72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" t="s">
+        <v>78</v>
+      </c>
+      <c r="N39" s="76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N40" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41" t="s">
+        <v>78</v>
+      </c>
+      <c r="N41" s="80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" t="s">
+        <v>78</v>
+      </c>
+      <c r="N42" s="82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" t="s">
+        <v>83</v>
+      </c>
+      <c r="N43" s="84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="M44" t="s">
+        <v>83</v>
+      </c>
+      <c r="N44" s="86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="M45" t="s">
+        <v>83</v>
+      </c>
+      <c r="N45" s="88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46" t="s">
+        <v>83</v>
+      </c>
+      <c r="N46" s="90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="M47" t="s">
+        <v>88</v>
+      </c>
+      <c r="N47" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="M48" t="s">
+        <v>88</v>
+      </c>
+      <c r="N48" s="94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="M49" t="s">
+        <v>88</v>
+      </c>
+      <c r="N49" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="M50" t="s">
+        <v>88</v>
+      </c>
+      <c r="N50" s="98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="M51" t="s">
+        <v>93</v>
+      </c>
+      <c r="N51" s="100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="M52" t="s">
+        <v>93</v>
+      </c>
+      <c r="N52" s="102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="M53" t="s">
+        <v>93</v>
+      </c>
+      <c r="N53" s="104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="M54" t="s">
+        <v>93</v>
+      </c>
+      <c r="N54" s="106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="M55" t="s">
+        <v>98</v>
+      </c>
+      <c r="N55" s="108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="M56" t="s">
+        <v>98</v>
+      </c>
+      <c r="N56" s="110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="M57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N57" s="112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="M58" t="s">
+        <v>98</v>
+      </c>
+      <c r="N58" s="114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="M59" t="s">
+        <v>103</v>
+      </c>
+      <c r="N59" s="116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="M60" t="s">
+        <v>103</v>
+      </c>
+      <c r="N60" s="118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="M61" t="s">
+        <v>103</v>
+      </c>
+      <c r="N61" s="120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="M62" t="s">
+        <v>103</v>
+      </c>
+      <c r="N62" s="122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="M63" t="s">
+        <v>108</v>
+      </c>
+      <c r="N63" s="124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="M64" t="s">
+        <v>110</v>
+      </c>
+      <c r="N64" s="126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s" s="129">
+        <v>111</v>
+      </c>
+      <c r="M65" t="s">
+        <v>112</v>
+      </c>
+      <c r="N65" t="s" s="128">
         <v>20</v>
       </c>
     </row>
@@ -535,7 +5688,66 @@
     <hyperlink r:id="rId2" ref="L3"/>
     <hyperlink r:id="rId3" ref="L4"/>
     <hyperlink r:id="rId4" ref="L5"/>
-    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink r:id="rId5" ref="L6"/>
+    <hyperlink r:id="rId6" ref="L7"/>
+    <hyperlink r:id="rId7" ref="L8"/>
+    <hyperlink r:id="rId8" ref="L9"/>
+    <hyperlink r:id="rId9" ref="L10"/>
+    <hyperlink r:id="rId10" ref="L11"/>
+    <hyperlink r:id="rId11" ref="L12"/>
+    <hyperlink r:id="rId12" ref="L13"/>
+    <hyperlink r:id="rId13" ref="L14"/>
+    <hyperlink r:id="rId14" ref="L15"/>
+    <hyperlink r:id="rId15" ref="L16"/>
+    <hyperlink r:id="rId16" ref="L17"/>
+    <hyperlink r:id="rId17" ref="L18"/>
+    <hyperlink r:id="rId18" ref="L19"/>
+    <hyperlink r:id="rId19" ref="L20"/>
+    <hyperlink r:id="rId20" ref="L21"/>
+    <hyperlink r:id="rId21" ref="L22"/>
+    <hyperlink r:id="rId22" ref="L23"/>
+    <hyperlink r:id="rId23" ref="L24"/>
+    <hyperlink r:id="rId24" ref="L25"/>
+    <hyperlink r:id="rId25" ref="L26"/>
+    <hyperlink r:id="rId26" ref="L27"/>
+    <hyperlink r:id="rId27" ref="L28"/>
+    <hyperlink r:id="rId28" ref="L29"/>
+    <hyperlink r:id="rId29" ref="L30"/>
+    <hyperlink r:id="rId30" ref="L31"/>
+    <hyperlink r:id="rId31" ref="L32"/>
+    <hyperlink r:id="rId32" ref="L33"/>
+    <hyperlink r:id="rId33" ref="L34"/>
+    <hyperlink r:id="rId34" ref="L35"/>
+    <hyperlink r:id="rId35" ref="L36"/>
+    <hyperlink r:id="rId36" ref="L37"/>
+    <hyperlink r:id="rId37" ref="L38"/>
+    <hyperlink r:id="rId38" ref="L39"/>
+    <hyperlink r:id="rId39" ref="L40"/>
+    <hyperlink r:id="rId40" ref="L41"/>
+    <hyperlink r:id="rId41" ref="L42"/>
+    <hyperlink r:id="rId42" ref="L43"/>
+    <hyperlink r:id="rId43" ref="L44"/>
+    <hyperlink r:id="rId44" ref="L45"/>
+    <hyperlink r:id="rId45" ref="L46"/>
+    <hyperlink r:id="rId46" ref="L47"/>
+    <hyperlink r:id="rId47" ref="L48"/>
+    <hyperlink r:id="rId48" ref="L49"/>
+    <hyperlink r:id="rId49" ref="L50"/>
+    <hyperlink r:id="rId50" ref="L51"/>
+    <hyperlink r:id="rId51" ref="L52"/>
+    <hyperlink r:id="rId52" ref="L53"/>
+    <hyperlink r:id="rId53" ref="L54"/>
+    <hyperlink r:id="rId54" ref="L55"/>
+    <hyperlink r:id="rId55" ref="L56"/>
+    <hyperlink r:id="rId56" ref="L57"/>
+    <hyperlink r:id="rId57" ref="L58"/>
+    <hyperlink r:id="rId58" ref="L59"/>
+    <hyperlink r:id="rId59" ref="L60"/>
+    <hyperlink r:id="rId60" ref="L61"/>
+    <hyperlink r:id="rId61" ref="L62"/>
+    <hyperlink r:id="rId62" ref="L63"/>
+    <hyperlink r:id="rId63" ref="L64"/>
+    <hyperlink ref="L65" r:id="rId64"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
